--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H2">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I2">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J2">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N2">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O2">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P2">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q2">
-        <v>39.148716823256</v>
+        <v>125.932186220034</v>
       </c>
       <c r="R2">
-        <v>156.594867293024</v>
+        <v>503.7287448801359</v>
       </c>
       <c r="S2">
-        <v>3.266022679462682E-05</v>
+        <v>0.0001515989272489559</v>
       </c>
       <c r="T2">
-        <v>1.604681919849274E-05</v>
+        <v>7.626990966243999E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H3">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I3">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J3">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.506796</v>
       </c>
       <c r="O3">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P3">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q3">
-        <v>7.657774341237332</v>
+        <v>13.317878224636</v>
       </c>
       <c r="R3">
-        <v>45.946646047424</v>
+        <v>79.907269347816</v>
       </c>
       <c r="S3">
-        <v>6.388578401075782E-06</v>
+        <v>1.603224809072565E-05</v>
       </c>
       <c r="T3">
-        <v>4.708312185740452E-06</v>
+        <v>1.209881365015292E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H4">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I4">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J4">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N4">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O4">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P4">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q4">
-        <v>15268.73156451919</v>
+        <v>32693.25768284021</v>
       </c>
       <c r="R4">
-        <v>91612.38938711514</v>
+        <v>196159.5460970412</v>
       </c>
       <c r="S4">
-        <v>0.01273809913144425</v>
+        <v>0.03935660089575885</v>
       </c>
       <c r="T4">
-        <v>0.009387839296712639</v>
+        <v>0.02970064943148442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H5">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I5">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J5">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N5">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O5">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P5">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q5">
-        <v>10.523618107976</v>
+        <v>19.0297190568285</v>
       </c>
       <c r="R5">
-        <v>42.09447243190399</v>
+        <v>76.11887622731399</v>
       </c>
       <c r="S5">
-        <v>8.779438561377398E-06</v>
+        <v>2.290824197893E-05</v>
       </c>
       <c r="T5">
-        <v>4.313566594151019E-06</v>
+        <v>1.152521048773015E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H6">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I6">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J6">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N6">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O6">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P6">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q6">
-        <v>401.1470787838932</v>
+        <v>7567.324777311403</v>
       </c>
       <c r="R6">
-        <v>2406.882472703359</v>
+        <v>45403.94866386841</v>
       </c>
       <c r="S6">
-        <v>0.0003346611494377539</v>
+        <v>0.009109651414932318</v>
       </c>
       <c r="T6">
-        <v>0.0002466415952141013</v>
+        <v>0.006874642549404897</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H7">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I7">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J7">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N7">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O7">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P7">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q7">
-        <v>45533.72200921921</v>
+        <v>14872.07574301656</v>
       </c>
       <c r="R7">
-        <v>273202.3320553153</v>
+        <v>89232.45445809935</v>
       </c>
       <c r="S7">
-        <v>0.03798698420534604</v>
+        <v>0.01790321280270013</v>
       </c>
       <c r="T7">
-        <v>0.0279959905639482</v>
+        <v>0.01351074622929545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>358.5085</v>
       </c>
       <c r="I8">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J8">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N8">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O8">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P8">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q8">
-        <v>306.8501737151666</v>
+        <v>567.5617375143333</v>
       </c>
       <c r="R8">
-        <v>1841.101042291</v>
+        <v>3405.370425086</v>
       </c>
       <c r="S8">
-        <v>0.0002559929693418357</v>
+        <v>0.0006832387583932726</v>
       </c>
       <c r="T8">
-        <v>0.00018866400963524</v>
+        <v>0.0005156094372781071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>358.5085</v>
       </c>
       <c r="I9">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J9">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.506796</v>
       </c>
       <c r="O9">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P9">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q9">
         <v>60.02213041844444</v>
@@ -1013,10 +1013,10 @@
         <v>540.1991737659999</v>
       </c>
       <c r="S9">
-        <v>5.007409057654074E-05</v>
+        <v>7.22554801576655E-05</v>
       </c>
       <c r="T9">
-        <v>5.53560830086308E-05</v>
+        <v>8.179192194533479E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>358.5085</v>
       </c>
       <c r="I10">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J10">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N10">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O10">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P10">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q10">
-        <v>119677.3052392805</v>
+        <v>147344.7153776539</v>
       </c>
       <c r="R10">
-        <v>1077095.747153524</v>
+        <v>1326102.438398885</v>
       </c>
       <c r="S10">
-        <v>0.09984204460470987</v>
+        <v>0.1773756293567905</v>
       </c>
       <c r="T10">
-        <v>0.1103737371014587</v>
+        <v>0.2007860663260171</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>358.5085</v>
       </c>
       <c r="I11">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J11">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N11">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O11">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P11">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q11">
-        <v>82.48479916016666</v>
+        <v>85.76473367525</v>
       </c>
       <c r="R11">
-        <v>494.908794961</v>
+        <v>514.5884020515</v>
       </c>
       <c r="S11">
-        <v>6.881380709980139E-05</v>
+        <v>0.0001032447860330396</v>
       </c>
       <c r="T11">
-        <v>5.071502080347474E-05</v>
+        <v>7.791417769328682E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>358.5085</v>
       </c>
       <c r="I12">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J12">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N12">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O12">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P12">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q12">
-        <v>3144.216740637777</v>
+        <v>34105.05390132633</v>
       </c>
       <c r="R12">
-        <v>28297.95066573999</v>
+        <v>306945.485111937</v>
       </c>
       <c r="S12">
-        <v>0.002623095727614997</v>
+        <v>0.04105614093108131</v>
       </c>
       <c r="T12">
-        <v>0.002899789155740903</v>
+        <v>0.04647482332252433</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>358.5085</v>
       </c>
       <c r="I13">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J13">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N13">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O13">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P13">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q13">
-        <v>356896.2572006203</v>
+        <v>67026.7181290976</v>
       </c>
       <c r="R13">
-        <v>3212066.314805582</v>
+        <v>603240.4631618784</v>
       </c>
       <c r="S13">
-        <v>0.2977444383413706</v>
+        <v>0.08068770082046622</v>
       </c>
       <c r="T13">
-        <v>0.32915157628254</v>
+        <v>0.09133704617359677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H14">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I14">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J14">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N14">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O14">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P14">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q14">
-        <v>111.714717987407</v>
+        <v>183.5003402944147</v>
       </c>
       <c r="R14">
-        <v>670.2883079244421</v>
+        <v>1101.002041766488</v>
       </c>
       <c r="S14">
-        <v>9.319917284234077E-05</v>
+        <v>0.0002209002763586273</v>
       </c>
       <c r="T14">
-        <v>6.868676779808035E-05</v>
+        <v>0.0001667034631578823</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H15">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I15">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J15">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.506796</v>
       </c>
       <c r="O15">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P15">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q15">
-        <v>21.85221305732133</v>
+        <v>19.40596172888089</v>
       </c>
       <c r="R15">
-        <v>196.669917515892</v>
+        <v>174.653655559928</v>
       </c>
       <c r="S15">
-        <v>1.823043747867244E-05</v>
+        <v>2.336116817024351E-05</v>
       </c>
       <c r="T15">
-        <v>2.015344859454783E-05</v>
+        <v>2.644442801242235E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H16">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I16">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J16">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N16">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O16">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P16">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q16">
-        <v>43570.82885900357</v>
+        <v>47638.5274504174</v>
       </c>
       <c r="R16">
-        <v>392137.4597310321</v>
+        <v>428746.7470537566</v>
       </c>
       <c r="S16">
-        <v>0.03634942004841359</v>
+        <v>0.05734792568902698</v>
       </c>
       <c r="T16">
-        <v>0.04018368562160671</v>
+        <v>0.0649168347016532</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H17">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I17">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J17">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N17">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O17">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P17">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q17">
-        <v>30.030180412997</v>
+        <v>27.728891456977</v>
       </c>
       <c r="R17">
-        <v>180.181082477982</v>
+        <v>166.373348741862</v>
       </c>
       <c r="S17">
-        <v>2.505299234710574E-05</v>
+        <v>3.338042739395966E-05</v>
       </c>
       <c r="T17">
-        <v>1.846378047693322E-05</v>
+        <v>2.519070116159223E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H18">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I18">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J18">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N18">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O18">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P18">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q18">
-        <v>1144.712685734653</v>
+        <v>11026.62245002851</v>
       </c>
       <c r="R18">
-        <v>10302.41417161188</v>
+        <v>99239.6020502566</v>
       </c>
       <c r="S18">
-        <v>0.0009549885402264562</v>
+        <v>0.01327400234029801</v>
       </c>
       <c r="T18">
-        <v>0.001055724113935948</v>
+        <v>0.01502593520866202</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H19">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I19">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J19">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N19">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O19">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P19">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q19">
-        <v>129934.9589449416</v>
+        <v>21670.63910857206</v>
       </c>
       <c r="R19">
-        <v>1169414.630504474</v>
+        <v>195035.7519771486</v>
       </c>
       <c r="S19">
-        <v>0.1083995995795034</v>
+        <v>0.02608741847710542</v>
       </c>
       <c r="T19">
-        <v>0.1198339732851093</v>
+        <v>0.02953049500437546</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>69.930711</v>
+        <v>111.904068</v>
       </c>
       <c r="H20">
-        <v>139.861422</v>
+        <v>223.808136</v>
       </c>
       <c r="I20">
-        <v>0.2344141581404584</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J20">
-        <v>0.1727139692414096</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N20">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O20">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P20">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q20">
-        <v>179.562695041053</v>
+        <v>531.472480588344</v>
       </c>
       <c r="R20">
-        <v>718.2507801642121</v>
+        <v>2125.889922353376</v>
       </c>
       <c r="S20">
-        <v>0.0001498020578904749</v>
+        <v>0.0006397940061070492</v>
       </c>
       <c r="T20">
-        <v>7.360164868561377E-05</v>
+        <v>0.000321882429736595</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>69.930711</v>
+        <v>111.904068</v>
       </c>
       <c r="H21">
-        <v>139.861422</v>
+        <v>223.808136</v>
       </c>
       <c r="I21">
-        <v>0.2344141581404584</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J21">
-        <v>0.1727139692414096</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.506796</v>
       </c>
       <c r="O21">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P21">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q21">
-        <v>35.123771870652</v>
+        <v>56.205534015376</v>
       </c>
       <c r="R21">
-        <v>210.742631223912</v>
+        <v>337.233204092256</v>
       </c>
       <c r="S21">
-        <v>2.930237433725472E-05</v>
+        <v>6.766100802298454E-05</v>
       </c>
       <c r="T21">
-        <v>2.159552837920759E-05</v>
+        <v>5.106070732058758E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>69.930711</v>
+        <v>111.904068</v>
       </c>
       <c r="H22">
-        <v>139.861422</v>
+        <v>223.808136</v>
       </c>
       <c r="I22">
-        <v>0.2344141581404584</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J22">
-        <v>0.1727139692414096</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N22">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O22">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P22">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q22">
-        <v>70032.80853268673</v>
+        <v>137975.5825794503</v>
       </c>
       <c r="R22">
-        <v>420196.8511961204</v>
+        <v>827853.495476702</v>
       </c>
       <c r="S22">
-        <v>0.05842560357900364</v>
+        <v>0.1660969362435067</v>
       </c>
       <c r="T22">
-        <v>0.04305902878861777</v>
+        <v>0.1253458571810662</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>69.930711</v>
+        <v>111.904068</v>
       </c>
       <c r="H23">
-        <v>139.861422</v>
+        <v>223.808136</v>
       </c>
       <c r="I23">
-        <v>0.2344141581404584</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J23">
-        <v>0.1727139692414096</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N23">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O23">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P23">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q23">
-        <v>48.268484445663</v>
+        <v>80.311255570206</v>
       </c>
       <c r="R23">
-        <v>193.073937782652</v>
+        <v>321.245022280824</v>
       </c>
       <c r="S23">
-        <v>4.026848839376996E-05</v>
+        <v>9.667981280962691E-05</v>
       </c>
       <c r="T23">
-        <v>1.978495607868031E-05</v>
+        <v>4.863992590833217E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>69.930711</v>
+        <v>111.904068</v>
       </c>
       <c r="H24">
-        <v>139.861422</v>
+        <v>223.808136</v>
       </c>
       <c r="I24">
-        <v>0.2344141581404584</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J24">
-        <v>0.1727139692414096</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N24">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O24">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P24">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q24">
-        <v>1839.93388338828</v>
+        <v>31936.43334189583</v>
       </c>
       <c r="R24">
-        <v>11039.60330032968</v>
+        <v>191618.600051375</v>
       </c>
       <c r="S24">
-        <v>0.001534984101519315</v>
+        <v>0.0384455251680446</v>
       </c>
       <c r="T24">
-        <v>0.001131266440885229</v>
+        <v>0.02901310172211677</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>69.930711</v>
+        <v>111.904068</v>
       </c>
       <c r="H25">
-        <v>139.861422</v>
+        <v>223.808136</v>
       </c>
       <c r="I25">
-        <v>0.2344141581404584</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J25">
-        <v>0.1727139692414096</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N25">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O25">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P25">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q25">
-        <v>208848.6801786701</v>
+        <v>62764.72460208367</v>
       </c>
       <c r="R25">
-        <v>1253092.08107202</v>
+        <v>376588.347612502</v>
       </c>
       <c r="S25">
-        <v>0.1742341975393139</v>
+        <v>0.07555705339798449</v>
       </c>
       <c r="T25">
-        <v>0.1284086918787631</v>
+        <v>0.05701949619565123</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.094161</v>
+        <v>41.854159</v>
       </c>
       <c r="H26">
-        <v>33.282483</v>
+        <v>125.562477</v>
       </c>
       <c r="I26">
-        <v>0.0371886453591142</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J26">
-        <v>0.04110032389874984</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N26">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O26">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P26">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q26">
-        <v>28.486732365403</v>
+        <v>198.780384879922</v>
       </c>
       <c r="R26">
-        <v>170.920394192418</v>
+        <v>1192.682309279532</v>
       </c>
       <c r="S26">
-        <v>2.376535465753021E-05</v>
+        <v>0.0002392946077603847</v>
       </c>
       <c r="T26">
-        <v>1.75148056277514E-05</v>
+        <v>0.000180584834415963</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.094161</v>
+        <v>41.854159</v>
       </c>
       <c r="H27">
-        <v>33.282483</v>
+        <v>125.562477</v>
       </c>
       <c r="I27">
-        <v>0.0371886453591142</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J27">
-        <v>0.04110032389874984</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.506796</v>
       </c>
       <c r="O27">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P27">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q27">
-        <v>5.572212472718666</v>
+        <v>21.02189312152133</v>
       </c>
       <c r="R27">
-        <v>50.149912254468</v>
+        <v>189.197038093692</v>
       </c>
       <c r="S27">
-        <v>4.648676581877912E-06</v>
+        <v>2.530644898355501E-05</v>
       </c>
       <c r="T27">
-        <v>5.1390354529428E-06</v>
+        <v>2.864645138970734E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.094161</v>
+        <v>41.854159</v>
       </c>
       <c r="H28">
-        <v>33.282483</v>
+        <v>125.562477</v>
       </c>
       <c r="I28">
-        <v>0.0371886453591142</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J28">
-        <v>0.04110032389874984</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N28">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O28">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P28">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q28">
-        <v>11110.358267969</v>
+        <v>51605.3801672156</v>
       </c>
       <c r="R28">
-        <v>99993.22441172096</v>
+        <v>464448.4215049403</v>
       </c>
       <c r="S28">
-        <v>0.009268932681488717</v>
+        <v>0.06212327847588699</v>
       </c>
       <c r="T28">
-        <v>0.01024665253048608</v>
+        <v>0.07032244935609896</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.094161</v>
+        <v>41.854159</v>
       </c>
       <c r="H29">
-        <v>33.282483</v>
+        <v>125.562477</v>
       </c>
       <c r="I29">
-        <v>0.0371886453591142</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J29">
-        <v>0.04110032389874984</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N29">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O29">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P29">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q29">
-        <v>7.657556029513</v>
+        <v>30.0378719040405</v>
       </c>
       <c r="R29">
-        <v>45.945336177078</v>
+        <v>180.227231424243</v>
       </c>
       <c r="S29">
-        <v>6.388396272234602E-06</v>
+        <v>3.616001035301382E-05</v>
       </c>
       <c r="T29">
-        <v>4.708177958782831E-06</v>
+        <v>2.728832690044236E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.094161</v>
+        <v>41.854159</v>
       </c>
       <c r="H30">
-        <v>33.282483</v>
+        <v>125.562477</v>
       </c>
       <c r="I30">
-        <v>0.0371886453591142</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J30">
-        <v>0.04110032389874984</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N30">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O30">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P30">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q30">
-        <v>291.8963991609466</v>
+        <v>11944.80757379267</v>
       </c>
       <c r="R30">
-        <v>2627.067592448519</v>
+        <v>107503.268164134</v>
       </c>
       <c r="S30">
-        <v>0.0002435176263930109</v>
+        <v>0.01437932643540573</v>
       </c>
       <c r="T30">
-        <v>0.0002692047281432127</v>
+        <v>0.01627714247922581</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.094161</v>
+        <v>41.854159</v>
       </c>
       <c r="H31">
-        <v>33.282483</v>
+        <v>125.562477</v>
       </c>
       <c r="I31">
-        <v>0.0371886453591142</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J31">
-        <v>0.04110032389874984</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N31">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O31">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P31">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q31">
-        <v>33132.80888191848</v>
+        <v>23475.14983179005</v>
       </c>
       <c r="R31">
-        <v>298195.2799372663</v>
+        <v>211276.3484861104</v>
       </c>
       <c r="S31">
-        <v>0.02764139262372082</v>
+        <v>0.02825971372632078</v>
       </c>
       <c r="T31">
-        <v>0.03055710462108107</v>
+        <v>0.03198949469655583</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>39.03970533333333</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H32">
-        <v>117.119116</v>
+        <v>179.87447</v>
       </c>
       <c r="I32">
-        <v>0.130864673458917</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J32">
-        <v>0.1446296420352789</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N32">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O32">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P32">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q32">
-        <v>100.2431492976227</v>
+        <v>284.7627510300866</v>
       </c>
       <c r="R32">
-        <v>601.458895785736</v>
+        <v>1708.57650618052</v>
       </c>
       <c r="S32">
-        <v>8.362889658552282E-05</v>
+        <v>0.0003428013828108622</v>
       </c>
       <c r="T32">
-        <v>6.163357920243115E-05</v>
+        <v>0.0002586967233898157</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>39.03970533333333</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H33">
-        <v>117.119116</v>
+        <v>179.87447</v>
       </c>
       <c r="I33">
-        <v>0.130864673458917</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J33">
-        <v>0.1446296420352789</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.506796</v>
       </c>
       <c r="O33">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P33">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q33">
-        <v>19.60829061248178</v>
+        <v>30.11490354423555</v>
       </c>
       <c r="R33">
-        <v>176.474615512336</v>
+        <v>271.0341318981199</v>
       </c>
       <c r="S33">
-        <v>1.635842169105721E-05</v>
+        <v>3.625274211896119E-05</v>
       </c>
       <c r="T33">
-        <v>1.808396595113773E-05</v>
+        <v>4.103746106493559E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>39.03970533333333</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H34">
-        <v>117.119116</v>
+        <v>179.87447</v>
       </c>
       <c r="I34">
-        <v>0.130864673458917</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J34">
-        <v>0.1446296420352789</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N34">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O34">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P34">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q34">
-        <v>39096.70257437883</v>
+        <v>73927.26416767341</v>
       </c>
       <c r="R34">
-        <v>351870.3231694095</v>
+        <v>665345.3775090605</v>
       </c>
       <c r="S34">
-        <v>0.03261683336304771</v>
+        <v>0.08899467466313665</v>
       </c>
       <c r="T34">
-        <v>0.03605737247217081</v>
+        <v>0.1007403932229701</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>39.03970533333333</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H35">
-        <v>117.119116</v>
+        <v>179.87447</v>
       </c>
       <c r="I35">
-        <v>0.130864673458917</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J35">
-        <v>0.1446296420352789</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N35">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O35">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P35">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q35">
-        <v>26.94649293134266</v>
+        <v>43.030739897455</v>
       </c>
       <c r="R35">
-        <v>161.678957588056</v>
+        <v>258.18443938473</v>
       </c>
       <c r="S35">
-        <v>2.248039378738095E-05</v>
+        <v>5.180100658131229E-05</v>
       </c>
       <c r="T35">
-        <v>1.656780356511651E-05</v>
+        <v>3.909188043816475E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>39.03970533333333</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H36">
-        <v>117.119116</v>
+        <v>179.87447</v>
       </c>
       <c r="I36">
-        <v>0.130864673458917</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J36">
-        <v>0.1446296420352789</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N36">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O36">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P36">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q36">
-        <v>1027.166399613671</v>
+        <v>17111.52872197593</v>
       </c>
       <c r="R36">
-        <v>9244.497596523037</v>
+        <v>154003.7584977833</v>
       </c>
       <c r="S36">
-        <v>0.0008569243206273915</v>
+        <v>0.02059909762313462</v>
       </c>
       <c r="T36">
-        <v>0.0009473157331186315</v>
+        <v>0.02331781314385211</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>39.03970533333333</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H37">
-        <v>117.119116</v>
+        <v>179.87447</v>
       </c>
       <c r="I37">
-        <v>0.130864673458917</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J37">
-        <v>0.1446296420352789</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N37">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O37">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P37">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q37">
-        <v>116592.4215103555</v>
+        <v>33629.31534206531</v>
       </c>
       <c r="R37">
-        <v>1049331.793593199</v>
+        <v>302663.8380785878</v>
       </c>
       <c r="S37">
-        <v>0.09726844806317796</v>
+        <v>0.04048344019904668</v>
       </c>
       <c r="T37">
-        <v>0.1075286684812708</v>
+        <v>0.04582653625183572</v>
       </c>
     </row>
   </sheetData>
